--- a/ja/releases/nablarch6-releasenote.xlsx
+++ b/ja/releases/nablarch6-releasenote.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{B1E35179-5A34-4756-9D5B-680E11787540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BCE2CD1-08C2-4045-BA4B-630D52FB36B1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573232AC-741B-43BE-9E64-11277B182893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="26844" windowHeight="15264" tabRatio="678" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1416" windowWidth="26844" windowHeight="15264" tabRatio="678" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="分類" sheetId="1" state="hidden" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'6'!$A$5:$N$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">モジュールバージョン一覧!$B$5:$E$80</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'6'!$A$1:$N$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'6'!$A$1:$N$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">バージョンアップ手順!$A$1:$C$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">モジュールバージョン一覧!$A$1:$D$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'6'!$4:$5</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="222">
   <si>
     <t>機能分類</t>
     <rPh sb="0" eb="2">
@@ -313,6 +313,7 @@
   </si>
   <si>
     <t>■Nablarch 6 リリースノート</t>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>5u23からの変更点を記載しています。</t>
@@ -439,6 +440,10 @@
   </si>
   <si>
     <t>Jakarta EE 10対応</t>
+    <rPh sb="13" eb="15">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Jakarta EE 10に対応しました。
@@ -531,6 +536,13 @@
   </si>
   <si>
     <t>必要Javaバージョンの変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>No.1 の対応に伴い、動作に必要なJavaのバージョンを 17 に変更しました。</t>
@@ -586,44 +598,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>Nablarch 6 に対応するため依存関係を変更しました。
-動作については現在検証中であるため、動作が保証されていない状態であることにご注意ください。次期バージョンの 6u1 では動作を保証した状態となる予定です。</t>
-    <rPh sb="32" eb="34">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ケンショウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>チュウイ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>ジキ</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>ホショウ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>※モジュールバージョン一覧を参照</t>
     <phoneticPr fontId="10"/>
   </si>
@@ -650,14 +624,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>Nablarch 6 に対応したサンプルを追加しました。
-Nablarch 6 に対応したサンプルは、現時点では v6-master ブランチにて公開します。</t>
-    <rPh sb="52" eb="55">
-      <t>ゲンジテン</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>テスティングフレームワーク</t>
     <phoneticPr fontId="10"/>
   </si>
@@ -718,44 +684,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>実装例集で案内しているサンプルは Nablarch 6 に未対応のため、解説書から一時的に削除しました。
-次バージョンの6u1にて改めて公開予定です。</t>
-    <rPh sb="0" eb="3">
-      <t>ジッソウレイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>シュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>アンナイ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>ミタイオウ</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>カイセツショ</t>
-    </rPh>
-    <rPh sb="41" eb="44">
-      <t>イチジテキ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>アラタ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>■バージョンアップ手順</t>
     <rPh sb="9" eb="11">
       <t>テジュン</t>
@@ -1077,13 +1005,180 @@
   </si>
   <si>
     <t>nablarch-toolbox</t>
+  </si>
+  <si>
+    <t>ETL基盤</t>
+  </si>
+  <si>
+    <t>帳票ライブラリ</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ワークフローライブラリ</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>解説書</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>解説書からの削除</t>
+    <rPh sb="0" eb="3">
+      <t>カイセツショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Nablarch 6 に対応するため依存関係を変更しました。
+動作については現在検証中であるため、動作が保証されていない状態であることにご注意ください。次期バージョンの 6u1 では動作を保証した状態となる予定です。
+</t>
+    <rPh sb="32" eb="34">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ホショウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Nablarch 6 に対応したサンプルを追加しました。
+Nablarch 6 に対応したサンプルは、現時点では v6-master ブランチにて公開します。
+</t>
+    <rPh sb="52" eb="55">
+      <t>ゲンジテン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">実装例集で案内しているサンプルは Nablarch 6 に未対応のため、解説書から一時的に削除しました。
+次バージョンの6u1にて改めて公開予定です。
+</t>
+    <rPh sb="0" eb="3">
+      <t>ジッソウレイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>アンナイ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ミタイオウ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>カイセツショ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>イチジテキ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>アラタ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ETL基盤はNablarch 6 に対応しないため、解説書から削除しました。
+</t>
+    <rPh sb="3" eb="5">
+      <t>キバン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>カイセツショ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">帳票ライブラリはNablarch 6 に対応しないため、解説書から削除しました。
+</t>
+    <rPh sb="0" eb="2">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>カイセツショ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ワークフローライブラリはNablarch 6 に対応しないため、解説書から削除しました。
+</t>
+    <rPh sb="24" eb="26">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>カイセツショ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1596,7 +1691,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1754,6 +1849,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1827,7 +1925,28 @@
     <cellStyle name="標準 4 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="標準 5" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2391,9 +2510,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2431,9 +2550,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2466,9 +2585,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2501,9 +2637,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2684,349 +2837,349 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="46" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="46" t="s">
         <v>67</v>
       </c>
@@ -3043,38 +3196,38 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DR23"/>
+  <dimension ref="A1:DR29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="4.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="5.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
-    <col min="12" max="13" width="24.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="24.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:122" s="5" customFormat="1" ht="18.600000000000001">
+    <row r="1" spans="1:122" s="5" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B1" s="26"/>
       <c r="D1" s="26"/>
     </row>
-    <row r="2" spans="1:122" s="6" customFormat="1" ht="18.600000000000001">
+    <row r="2" spans="1:122" s="6" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>69</v>
       </c>
@@ -3092,7 +3245,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:122" s="7" customFormat="1" ht="110.25" customHeight="1">
+    <row r="3" spans="1:122" s="7" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="28"/>
       <c r="C3" s="5"/>
       <c r="D3" s="26"/>
@@ -3109,67 +3262,67 @@
       <c r="AL3" s="8"/>
       <c r="DR3" s="9"/>
     </row>
-    <row r="4" spans="1:122" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A4" s="53" t="s">
+    <row r="4" spans="1:122" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="57" t="s">
+      <c r="J4" s="63"/>
+      <c r="K4" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="L4" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="M4" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="N4" s="57" t="s">
+      <c r="N4" s="58" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:122" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
+    <row r="5" spans="1:122" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
       <c r="I5" s="41" t="s">
         <v>82</v>
       </c>
       <c r="J5" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="58"/>
-    </row>
-    <row r="6" spans="1:122" ht="22.9">
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="59"/>
+    </row>
+    <row r="6" spans="1:122" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>84</v>
       </c>
@@ -3187,7 +3340,7 @@
       <c r="M6" s="18"/>
       <c r="N6" s="19"/>
     </row>
-    <row r="7" spans="1:122" s="10" customFormat="1" ht="84">
+    <row r="7" spans="1:122" s="10" customFormat="1" ht="91.2" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
       <c r="B7" s="34" t="s">
         <v>85</v>
@@ -3229,7 +3382,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:122" s="10" customFormat="1" ht="24">
+    <row r="8" spans="1:122" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="33"/>
       <c r="C8" s="21">
@@ -3270,7 +3423,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:122" s="10" customFormat="1" ht="22.9">
+    <row r="9" spans="1:122" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>100</v>
       </c>
@@ -3288,7 +3441,7 @@
       <c r="M9" s="20"/>
       <c r="N9" s="19"/>
     </row>
-    <row r="10" spans="1:122" s="10" customFormat="1" ht="57">
+    <row r="10" spans="1:122" s="10" customFormat="1" ht="68.400000000000006" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="47" t="s">
         <v>85</v>
@@ -3307,10 +3460,10 @@
         <v>102</v>
       </c>
       <c r="G10" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="H10" s="21" t="s">
         <v>103</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>104</v>
       </c>
       <c r="I10" s="21" t="s">
         <v>91</v>
@@ -3319,7 +3472,7 @@
         <v>91</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L10" s="21" t="s">
         <v>91</v>
@@ -3331,9 +3484,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:122" s="10" customFormat="1" ht="22.9">
+    <row r="11" spans="1:122" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="11"/>
@@ -3349,7 +3502,7 @@
       <c r="M11" s="20"/>
       <c r="N11" s="19"/>
     </row>
-    <row r="12" spans="1:122" s="10" customFormat="1" ht="45.6">
+    <row r="12" spans="1:122" s="10" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="21" t="s">
         <v>85</v>
@@ -3362,16 +3515,16 @@
         <v>101</v>
       </c>
       <c r="E12" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>108</v>
-      </c>
       <c r="G12" s="21" t="s">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I12" s="21" t="s">
         <v>91</v>
@@ -3380,7 +3533,7 @@
         <v>91</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L12" s="21" t="s">
         <v>91</v>
@@ -3392,47 +3545,45 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:122" s="10" customFormat="1" ht="22.9">
+    <row r="13" spans="1:122" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-    </row>
-    <row r="14" spans="1:122" s="10" customFormat="1" ht="34.15">
+        <v>210</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="19"/>
+    </row>
+    <row r="14" spans="1:122" s="10" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
-      <c r="B14" s="21" t="s">
-        <v>85</v>
+      <c r="B14" s="34" t="s">
+        <v>111</v>
       </c>
       <c r="C14" s="21">
         <f>C12+1</f>
         <v>5</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>87</v>
+      <c r="D14" s="21"/>
+      <c r="E14" s="24" t="s">
+        <v>214</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>111</v>
+        <v>219</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="I14" s="21" t="s">
         <v>91</v>
@@ -3441,7 +3592,7 @@
         <v>91</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L14" s="21" t="s">
         <v>91</v>
@@ -3453,44 +3604,42 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:122" s="10" customFormat="1" ht="22.9">
+    <row r="15" spans="1:122" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+        <v>211</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="22"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="19"/>
-    </row>
-    <row r="16" spans="1:122" s="10" customFormat="1" ht="34.15">
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+    </row>
+    <row r="16" spans="1:122" s="10" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
-      <c r="B16" s="21" t="s">
-        <v>113</v>
+      <c r="B16" s="34" t="s">
+        <v>213</v>
       </c>
       <c r="C16" s="21">
         <f>C14+1</f>
         <v>6</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>87</v>
+      <c r="D16" s="21"/>
+      <c r="E16" s="24" t="s">
+        <v>214</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>116</v>
+        <v>220</v>
       </c>
       <c r="H16" s="21" t="s">
         <v>91</v>
@@ -3502,7 +3651,7 @@
         <v>91</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L16" s="21" t="s">
         <v>91</v>
@@ -3514,52 +3663,233 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="43"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-    </row>
-    <row r="18" spans="1:14" ht="15">
-      <c r="A18" s="44"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="B23" s="1"/>
+    <row r="17" spans="1:14" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+    </row>
+    <row r="18" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="21">
+        <f>C16+1</f>
+        <v>7</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.2">
+      <c r="A19" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+    </row>
+    <row r="20" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="21">
+        <f>C18+1</f>
+        <v>8</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.2">
+      <c r="A21" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="19"/>
+    </row>
+    <row r="22" spans="1:14" s="10" customFormat="1" ht="45.6" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="21">
+        <f>C20+1</f>
+        <v>9</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="43"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="44"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:N5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -3583,32 +3913,47 @@
   </mergeCells>
   <phoneticPr fontId="10"/>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="5" priority="11">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>#REF!="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="4" priority="13">
+    <cfRule type="expression" dxfId="7" priority="16">
       <formula>#REF!="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="3" priority="3">
+  <conditionalFormatting sqref="G21">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>#REF!="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="2" priority="2">
+  <conditionalFormatting sqref="I21">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>#REF!="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:J9">
-    <cfRule type="expression" dxfId="1" priority="6">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>#REF!="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:J11">
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="3" priority="10">
+      <formula>#REF!="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>#REF!="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>#REF!="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>#REF!="完了"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3637,29 +3982,29 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.600000000000001"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="3.5" style="15" customWidth="1"/>
-    <col min="3" max="3" width="89.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="89.88671875" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -3667,7 +4012,7 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="51"/>
       <c r="B4" s="51" t="s">
         <v>94</v>
@@ -3698,1089 +4043,1089 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="16" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001">
+    <row r="1" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="48"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="48"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="16" t="s">
+      <c r="D5" s="50" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" s="50" t="s">
+      <c r="E5" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="50" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="C6" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="D6" s="17" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>127</v>
       </c>
       <c r="E6" s="49">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E7" s="49">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>128</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>131</v>
       </c>
       <c r="E8" s="49">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>129</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>132</v>
       </c>
       <c r="E9" s="49">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E10" s="49">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E11" s="49">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E12" s="49">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E13" s="49">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E14" s="49">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E15" s="49">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E16" s="49">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E17" s="49">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E18" s="49">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E19" s="49">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C20" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="E21" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="D22" s="17" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="17" t="s">
+      <c r="E22" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="17" t="s">
+      <c r="E23" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="E24" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="17" t="s">
+      <c r="E25" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D24" s="17" t="s">
+      <c r="E26" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="17" t="s">
+      <c r="E27" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="17" t="s">
+      <c r="E28" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="17" t="s">
+      <c r="E29" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D28" s="17" t="s">
+      <c r="E30" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="17" t="s">
+      <c r="E31" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="17" t="s">
+      <c r="E32" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="17" t="s">
+      <c r="E33" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="17" t="s">
+      <c r="E34" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" s="17" t="s">
+      <c r="E35" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" s="17" t="s">
+      <c r="E36" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" s="17" t="s">
+      <c r="E37" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D36" s="17" t="s">
+      <c r="E38" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D37" s="17" t="s">
+      <c r="E39" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" s="17" t="s">
+      <c r="E40" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="E38" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D39" s="17" t="s">
+      <c r="E41" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" s="17" t="s">
+      <c r="E42" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="E40" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41" s="17" t="s">
+      <c r="E43" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D42" s="17" t="s">
+      <c r="E44" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="E42" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" s="17" t="s">
+      <c r="E45" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E43" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D44" s="17" t="s">
+      <c r="E46" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="17" t="s">
+      <c r="E47" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="E45" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="B46" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="17" t="s">
+      <c r="E48" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="E46" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="B47" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D47" s="17" t="s">
+      <c r="E49" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="E47" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5">
-      <c r="B48" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D48" s="17" t="s">
+      <c r="E50" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="E48" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" s="17" t="s">
+      <c r="E51" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E49" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="17" t="s">
+      <c r="E52" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="E50" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5">
-      <c r="B51" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51" s="17" t="s">
+      <c r="E53" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E51" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="B52" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D52" s="17" t="s">
+      <c r="E54" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E52" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5">
-      <c r="B53" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" s="17" t="s">
+      <c r="E55" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="E53" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="B54" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" s="17" t="s">
+      <c r="E56" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="E54" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="B55" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D55" s="17" t="s">
+      <c r="E57" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E55" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5">
-      <c r="B56" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D56" s="17" t="s">
+      <c r="E58" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="E56" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5">
-      <c r="B57" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D57" s="17" t="s">
+      <c r="E59" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="E57" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="B58" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D58" s="17" t="s">
+      <c r="E60" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="E58" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5">
-      <c r="B59" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D59" s="17" t="s">
+      <c r="E61" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="E59" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5">
-      <c r="B60" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D60" s="17" t="s">
+      <c r="E62" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="E60" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5">
-      <c r="B61" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D61" s="17" t="s">
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="E61" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="B62" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D62" s="17" t="s">
+      <c r="E63" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="C64" s="17" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="63" spans="2:5">
-      <c r="B63" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D63" s="17" t="s">
+      <c r="D64" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E63" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5">
-      <c r="B64" s="17" t="s">
+      <c r="E64" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D65" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="E65" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D66" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="E66" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="B65" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D65" s="17" t="s">
+      <c r="E67" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D68" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="E65" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="B66" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D66" s="17" t="s">
+      <c r="E68" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D69" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="E66" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5">
-      <c r="B67" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D67" s="17" t="s">
+      <c r="E69" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D70" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="E67" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="B68" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D68" s="17" t="s">
+      <c r="E70" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D71" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="E68" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="B69" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D69" s="17" t="s">
+      <c r="E71" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D72" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="E69" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5">
-      <c r="B70" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D70" s="17" t="s">
+      <c r="E72" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D73" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="E70" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5">
-      <c r="B71" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D71" s="17" t="s">
+      <c r="E73" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D74" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="E71" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5">
-      <c r="B72" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D72" s="17" t="s">
+      <c r="E74" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D75" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="E72" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5">
-      <c r="B73" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D73" s="17" t="s">
+      <c r="E75" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D76" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="E73" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5">
-      <c r="B74" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D74" s="17" t="s">
+      <c r="E76" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D77" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="E74" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="B75" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D75" s="17" t="s">
+      <c r="E77" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D78" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E75" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5">
-      <c r="B76" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D76" s="17" t="s">
+      <c r="E78" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D79" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="E76" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5">
-      <c r="B77" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D77" s="17" t="s">
+      <c r="E79" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="E77" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5">
-      <c r="B78" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D78" s="17" t="s">
+      <c r="C80" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="E78" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5">
-      <c r="B79" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D79" s="17" t="s">
+      <c r="D80" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="E79" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5">
-      <c r="B80" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>212</v>
-      </c>
       <c r="E80" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4792,17 +5137,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="86b2f916-4c25-4caf-b602-cb3f88f7f404" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1d008ebc-df4f-45f1-825a-8a8202e958a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4811,7 +5145,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004FB777E25BEAEA41AA8B3499B0554451" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9397b6e5093f0ea3320ea4328e9622b7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1d008ebc-df4f-45f1-825a-8a8202e958a5" xmlns:ns3="86b2f916-4c25-4caf-b602-cb3f88f7f404" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b83f8d8fade62e630f7e332b1b8b9037" ns2:_="" ns3:_="">
     <xsd:import namespace="1d008ebc-df4f-45f1-825a-8a8202e958a5"/>
@@ -5028,14 +5362,57 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="86b2f916-4c25-4caf-b602-cb3f88f7f404" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1d008ebc-df4f-45f1-825a-8a8202e958a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C264D710-DF10-4E11-B6C6-AA51ACFB41F0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FF9CC0D-EF13-4E87-8EE3-26008FE7B892}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FF9CC0D-EF13-4E87-8EE3-26008FE7B892}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E255C67-8165-4DE8-B7FE-F3F006A8AFD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1d008ebc-df4f-45f1-825a-8a8202e958a5"/>
+    <ds:schemaRef ds:uri="86b2f916-4c25-4caf-b602-cb3f88f7f404"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E255C67-8165-4DE8-B7FE-F3F006A8AFD9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C264D710-DF10-4E11-B6C6-AA51ACFB41F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1d008ebc-df4f-45f1-825a-8a8202e958a5"/>
+    <ds:schemaRef ds:uri="86b2f916-4c25-4caf-b602-cb3f88f7f404"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>